--- a/SchedulingData/dynamic12/pso/scheduling2_6.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_6.xlsx
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>226.82</v>
+        <v>213.86</v>
       </c>
       <c r="D2" t="n">
-        <v>263.02</v>
+        <v>284.86</v>
       </c>
       <c r="E2" t="n">
-        <v>14.368</v>
+        <v>13.624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>209.42</v>
+        <v>247.04</v>
       </c>
       <c r="D3" t="n">
-        <v>266.72</v>
+        <v>289.06</v>
       </c>
       <c r="E3" t="n">
-        <v>14.928</v>
+        <v>13.764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>266.72</v>
+        <v>201.94</v>
       </c>
       <c r="D4" t="n">
-        <v>320.96</v>
+        <v>272.44</v>
       </c>
       <c r="E4" t="n">
-        <v>11.624</v>
+        <v>11.956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>229.46</v>
+        <v>289.06</v>
       </c>
       <c r="D5" t="n">
-        <v>295.72</v>
+        <v>344.12</v>
       </c>
       <c r="E5" t="n">
-        <v>11.068</v>
+        <v>11.388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>258.26</v>
+        <v>228.7</v>
       </c>
       <c r="D6" t="n">
-        <v>321.04</v>
+        <v>265.52</v>
       </c>
       <c r="E6" t="n">
-        <v>12.076</v>
+        <v>15.108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>258.96</v>
+        <v>228.86</v>
       </c>
       <c r="D7" t="n">
-        <v>317.5</v>
+        <v>303.66</v>
       </c>
       <c r="E7" t="n">
-        <v>13.34</v>
+        <v>11.804</v>
       </c>
     </row>
     <row r="8">
@@ -580,55 +580,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>320.96</v>
+        <v>263.74</v>
       </c>
       <c r="D8" t="n">
-        <v>404.06</v>
+        <v>333</v>
       </c>
       <c r="E8" t="n">
-        <v>7.424</v>
+        <v>11.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>295.72</v>
+        <v>333</v>
       </c>
       <c r="D9" t="n">
-        <v>333.62</v>
+        <v>392.16</v>
       </c>
       <c r="E9" t="n">
-        <v>8.907999999999999</v>
+        <v>9.004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>317.5</v>
+        <v>284.86</v>
       </c>
       <c r="D10" t="n">
-        <v>366.46</v>
+        <v>331.3</v>
       </c>
       <c r="E10" t="n">
-        <v>10.064</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="11">
@@ -637,231 +637,231 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>263.02</v>
+        <v>265.52</v>
       </c>
       <c r="D11" t="n">
-        <v>319.94</v>
+        <v>312.92</v>
       </c>
       <c r="E11" t="n">
-        <v>11.296</v>
+        <v>11.988</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>321.04</v>
+        <v>392.16</v>
       </c>
       <c r="D12" t="n">
-        <v>388.34</v>
+        <v>432.84</v>
       </c>
       <c r="E12" t="n">
-        <v>8.436</v>
+        <v>6.076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>404.06</v>
+        <v>303.66</v>
       </c>
       <c r="D13" t="n">
-        <v>438.68</v>
+        <v>338.28</v>
       </c>
       <c r="E13" t="n">
-        <v>5.092</v>
+        <v>9.472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>366.46</v>
+        <v>312.92</v>
       </c>
       <c r="D14" t="n">
-        <v>411.32</v>
+        <v>355.02</v>
       </c>
       <c r="E14" t="n">
-        <v>7.688</v>
+        <v>8.907999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>333.62</v>
+        <v>344.12</v>
       </c>
       <c r="D15" t="n">
-        <v>377.54</v>
+        <v>398.44</v>
       </c>
       <c r="E15" t="n">
-        <v>6.136</v>
+        <v>9.055999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>254.74</v>
+        <v>338.28</v>
       </c>
       <c r="D16" t="n">
-        <v>289.36</v>
+        <v>408.68</v>
       </c>
       <c r="E16" t="n">
-        <v>14.704</v>
+        <v>7.052</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>289.36</v>
+        <v>272.44</v>
       </c>
       <c r="D17" t="n">
-        <v>355.66</v>
+        <v>309.8</v>
       </c>
       <c r="E17" t="n">
-        <v>12.184</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>355.66</v>
+        <v>309.8</v>
       </c>
       <c r="D18" t="n">
-        <v>403.66</v>
+        <v>375.52</v>
       </c>
       <c r="E18" t="n">
-        <v>10.024</v>
+        <v>5.888</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>319.94</v>
+        <v>408.68</v>
       </c>
       <c r="D19" t="n">
-        <v>384.94</v>
+        <v>467.5</v>
       </c>
       <c r="E19" t="n">
-        <v>6.916</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>377.54</v>
+        <v>355.02</v>
       </c>
       <c r="D20" t="n">
-        <v>439.74</v>
+        <v>392.82</v>
       </c>
       <c r="E20" t="n">
-        <v>3.016</v>
+        <v>6.748</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>411.32</v>
+        <v>331.3</v>
       </c>
       <c r="D21" t="n">
-        <v>473.42</v>
+        <v>369.94</v>
       </c>
       <c r="E21" t="n">
-        <v>4.608</v>
+        <v>7.376</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>388.34</v>
+        <v>375.52</v>
       </c>
       <c r="D22" t="n">
-        <v>445.6</v>
+        <v>437.52</v>
       </c>
       <c r="E22" t="n">
-        <v>5.84</v>
+        <v>2.808</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -869,18 +869,18 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>445.6</v>
+        <v>392.82</v>
       </c>
       <c r="D23" t="n">
-        <v>487.7</v>
+        <v>489.42</v>
       </c>
       <c r="E23" t="n">
-        <v>2.76</v>
+        <v>3.668</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -888,13 +888,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>403.66</v>
+        <v>398.44</v>
       </c>
       <c r="D24" t="n">
-        <v>450.2</v>
+        <v>459.68</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6.032</v>
       </c>
     </row>
     <row r="25">
@@ -903,36 +903,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>450.2</v>
+        <v>369.94</v>
       </c>
       <c r="D25" t="n">
-        <v>514.5599999999999</v>
+        <v>438.04</v>
       </c>
       <c r="E25" t="n">
-        <v>4.184</v>
+        <v>3.656</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>473.42</v>
+        <v>459.68</v>
       </c>
       <c r="D26" t="n">
-        <v>533.92</v>
+        <v>512.1799999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>2.188</v>
+        <v>3.872</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>438.68</v>
+        <v>432.84</v>
       </c>
       <c r="D27" t="n">
-        <v>490.88</v>
+        <v>502.08</v>
       </c>
       <c r="E27" t="n">
-        <v>2.012</v>
+        <v>2.772</v>
       </c>
     </row>
   </sheetData>
